--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikramsingh/Downloads/automation-demo/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7DC0E-2793-1645-BB21-0684F898F052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId4"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -19,40 +28,46 @@
     <t>Password</t>
   </si>
   <si>
-    <t>selenium@qa</t>
-  </si>
-  <si>
-    <t>qa@12345</t>
-  </si>
-  <si>
     <t>selenium@hq</t>
   </si>
   <si>
     <t>qa@123</t>
   </si>
+  <si>
+    <t>rptest</t>
+  </si>
+  <si>
+    <t>rptest123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,47 +108,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -259,7 +331,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -268,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -277,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,7 +423,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -359,7 +431,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -378,7 +450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -408,7 +480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -434,7 +506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -460,7 +532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -512,7 +584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -538,7 +610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -564,7 +636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,9 +701,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -646,7 +724,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -654,7 +732,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -673,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,9 +998,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -936,7 +1020,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -955,7 +1039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,56 +1290,65 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6719" style="1" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B3" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
